--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ451.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ451.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8147DE2-748E-4AB0-9AB3-4493C26BEC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF175829-264F-4D81-BF94-07D7178D41F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -250,10 +250,6 @@
     <t>CustId= , AND ApplyDate=</t>
   </si>
   <si>
-    <t>A:新增;C:異動;D:刪除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>報送單位代號</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -397,6 +393,12 @@
   <si>
     <t>custRcSubCourtEq</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -992,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1017,7 @@
         <v>36</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -1040,10 +1042,10 @@
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1067,7 +1069,7 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="11"/>
@@ -1080,7 +1082,7 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="11"/>
@@ -1093,7 +1095,7 @@
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="11"/>
@@ -1106,7 +1108,7 @@
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11"/>
@@ -1149,12 +1151,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -1167,7 +1169,7 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1175,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>17</v>
@@ -1194,20 +1196,20 @@
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="E13" s="15">
         <v>3</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1215,13 +1217,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="15">
         <v>8</v>
@@ -1234,20 +1236,20 @@
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="E15" s="20">
         <v>3</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1261,14 +1263,14 @@
         <v>40</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="15">
         <v>6</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="194.4" x14ac:dyDescent="0.3">
@@ -1289,7 +1291,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1297,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>32</v>
@@ -1316,10 +1318,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>19</v>
@@ -1922,7 +1924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -1948,7 +1950,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
@@ -1959,7 +1961,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>43</v>
@@ -1970,7 +1972,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>44</v>
@@ -1981,43 +1983,43 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
